--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp8.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,10 +480,10 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-31.35404761904764</v>
+        <v>-31.3540476190476</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-31.35404761904765</v>
+        <v>-31.35404761904761</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>3.552713678800501e-15</v>
@@ -493,7 +493,7 @@
         <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.5214386317907334</v>
+        <v>-0.5214386317907689</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-31.67976190476192</v>
+        <v>-31.67976190476191</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-31.29297116029514</v>
+        <v>-31.29297116029509</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.38679074446679</v>
+        <v>-0.3867907444668219</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.136</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-2.648618376928226</v>
+        <v>-2.648618376928241</v>
       </c>
     </row>
     <row r="4">
@@ -522,13 +522,13 @@
         <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-31.75333333333335</v>
+        <v>-31.75333333333334</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-31.23189470154262</v>
+        <v>-31.23189470154258</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5214386317907334</v>
+        <v>-0.5214386317907689</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -539,13 +539,13 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-31.66809523809526</v>
+        <v>-31.66809523809524</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-31.17081824279011</v>
+        <v>-31.17081824279006</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4972769953051532</v>
+        <v>-0.4972769953051817</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -556,13 +556,13 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-31.5309523809524</v>
+        <v>-31.53095238095238</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-31.10974178403759</v>
+        <v>-31.10974178403755</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.4212105969148112</v>
+        <v>-0.4212105969148361</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -573,13 +573,13 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-31.44333333333336</v>
+        <v>-31.44333333333334</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-31.04866532528508</v>
+        <v>-31.04866532528503</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3946680080482814</v>
+        <v>-0.3946680080483063</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -590,13 +590,13 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-31.36809523809526</v>
+        <v>-31.36809523809524</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-30.98758886653256</v>
+        <v>-30.98758886653252</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3805063715626993</v>
+        <v>-0.3805063715627277</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -607,13 +607,13 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-31.31190476190478</v>
+        <v>-31.31190476190476</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-30.92651240778005</v>
+        <v>-30.92651240778</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.3853923541247362</v>
+        <v>-0.3853923541247646</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -624,13 +624,13 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-31.2757142857143</v>
+        <v>-31.27571428571429</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-30.86543594902753</v>
+        <v>-30.86543594902749</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.4102783366867762</v>
+        <v>-0.410278336686801</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -641,13 +641,13 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-31.25428571428574</v>
+        <v>-31.25428571428572</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-30.80435949027502</v>
+        <v>-30.80435949027497</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4499262240107207</v>
+        <v>-0.4499262240107491</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -658,13 +658,13 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-31.2461904761905</v>
+        <v>-31.24619047619048</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-30.7432830315225</v>
+        <v>-30.74328303152246</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.5029074446680006</v>
+        <v>-0.502907444668022</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -675,13 +675,13 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-31.25476190476193</v>
+        <v>-31.25476190476191</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-30.68220657276999</v>
+        <v>-30.68220657276994</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.5725553319919428</v>
+        <v>-0.5725553319919641</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -692,13 +692,13 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-31.27523809523811</v>
+        <v>-31.27523809523809</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-30.62113011401747</v>
+        <v>-30.62113011401743</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.6541079812206441</v>
+        <v>-0.6541079812206689</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -709,13 +709,13 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-31.31285714285716</v>
+        <v>-31.31285714285714</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-30.56005365526496</v>
+        <v>-30.56005365526491</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.7528034875922067</v>
+        <v>-0.7528034875922316</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -726,13 +726,13 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-31.36238095238097</v>
+        <v>-31.36238095238095</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-30.49897719651244</v>
+        <v>-30.4989771965124</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.8634037558685321</v>
+        <v>-0.863403755868557</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -743,13 +743,13 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-31.41952380952383</v>
+        <v>-31.41952380952382</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-30.43790073775992</v>
+        <v>-30.43790073775988</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.9816230717639094</v>
+        <v>-0.9816230717639343</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -760,13 +760,13 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-31.4809523809524</v>
+        <v>-31.48095238095238</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-30.37682427900741</v>
+        <v>-30.37682427900737</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1.104128101944994</v>
+        <v>-1.104128101945019</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -777,13 +777,13 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-31.54952380952383</v>
+        <v>-31.54952380952381</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-30.31574782025489</v>
+        <v>-30.31574782025485</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.233775989268938</v>
+        <v>-1.23377598926896</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -794,13 +794,13 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-31.61904761904764</v>
+        <v>-31.61904761904763</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-30.25467136150238</v>
+        <v>-30.25467136150234</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.364376257545263</v>
+        <v>-1.364376257545292</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -811,13 +811,13 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-31.6909523809524</v>
+        <v>-31.69095238095239</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-30.19359490274986</v>
+        <v>-30.19359490274982</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.497357478202542</v>
+        <v>-1.497357478202563</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -828,13 +828,13 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-31.76047619047621</v>
+        <v>-31.7604761904762</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-30.13251844399735</v>
+        <v>-30.13251844399731</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.627957746478863</v>
+        <v>-1.627957746478891</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -845,13 +845,13 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-31.82809523809526</v>
+        <v>-31.82809523809524</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-30.07144198524483</v>
+        <v>-30.07144198524479</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.75665325285043</v>
+        <v>-1.756653252850452</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -862,13 +862,13 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-31.89190476190478</v>
+        <v>-31.89190476190476</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-30.01036552649232</v>
+        <v>-30.01036552649228</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.881539235412465</v>
+        <v>-1.881539235412482</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -879,13 +879,13 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-31.94857142857145</v>
+        <v>-31.94857142857143</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-29.9492890677398</v>
+        <v>-29.94928906773976</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.999282360831646</v>
+        <v>-1.999282360831671</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -896,13 +896,13 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-31.99952380952383</v>
+        <v>-31.99952380952381</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-29.88821260898729</v>
+        <v>-29.88821260898725</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-2.111311200536541</v>
+        <v>-2.111311200536562</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -913,13 +913,13 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-32.04238095238097</v>
+        <v>-32.04238095238095</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-29.82713615023477</v>
+        <v>-29.82713615023473</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-2.215244802146202</v>
+        <v>-2.21524480214622</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -930,13 +930,13 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-32.07714285714287</v>
+        <v>-32.07714285714286</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-29.76605969148226</v>
+        <v>-29.76605969148222</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-2.311083165660616</v>
+        <v>-2.311083165660641</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -947,13 +947,13 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-32.10285714285716</v>
+        <v>-32.10285714285715</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-29.70498323272974</v>
+        <v>-29.7049832327297</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-2.397873910127419</v>
+        <v>-2.397873910127444</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -964,13 +964,13 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-32.11857142857145</v>
+        <v>-32.11857142857143</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-29.64390677397723</v>
+        <v>-29.64390677397719</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-2.474664654594221</v>
+        <v>-2.474664654594239</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -981,13 +981,13 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-32.12000000000002</v>
+        <v>-32.12</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-29.58283031522471</v>
+        <v>-29.58283031522467</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-2.537169684775307</v>
+        <v>-2.537169684775332</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -998,13 +998,13 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-32.10809523809526</v>
+        <v>-32.10809523809524</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-29.52175385647219</v>
+        <v>-29.52175385647216</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-2.586341381623065</v>
+        <v>-2.586341381623079</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1015,13 +1015,13 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-32.08142857142859</v>
+        <v>-32.08142857142857</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-29.46067739771968</v>
+        <v>-29.46067739771964</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-2.620751173708907</v>
+        <v>-2.620751173708932</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1032,13 +1032,13 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-32.0414285714286</v>
+        <v>-32.04142857142858</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-29.39960093896716</v>
+        <v>-29.39960093896713</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-2.641827632461432</v>
+        <v>-2.641827632461446</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1049,13 +1049,13 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-31.98714285714288</v>
+        <v>-31.98714285714286</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-29.33852448021465</v>
+        <v>-29.33852448021462</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-2.648618376928226</v>
+        <v>-2.648618376928241</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1066,13 +1066,13 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-31.92142857142859</v>
+        <v>-31.92142857142857</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-29.27744802146213</v>
+        <v>-29.2774480214621</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-2.643980549966457</v>
+        <v>-2.643980549966475</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1083,13 +1083,13 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-31.84047619047621</v>
+        <v>-31.8404761904762</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-29.21637156270962</v>
+        <v>-29.21637156270959</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-2.624104627766588</v>
+        <v>-2.624104627766609</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1100,13 +1100,13 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-31.74666666666669</v>
+        <v>-31.74666666666667</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-29.1552951039571</v>
+        <v>-29.15529510395707</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-2.591371562709586</v>
+        <v>-2.5913715627096</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1117,13 +1117,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-31.64428571428574</v>
+        <v>-31.64428571428572</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-29.09421864520459</v>
+        <v>-29.09421864520456</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-2.550067069081145</v>
+        <v>-2.550067069081162</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1134,13 +1134,13 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-31.53000000000002</v>
+        <v>-31.53</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-29.03314218645207</v>
+        <v>-29.03314218645204</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-2.496857813547944</v>
+        <v>-2.496857813547962</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1151,13 +1151,13 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-31.4057142857143</v>
+        <v>-31.40571428571429</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-28.97206572769956</v>
+        <v>-28.97206572769953</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-2.433648558014742</v>
+        <v>-2.433648558014763</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1168,13 +1168,13 @@
         <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-31.27333333333335</v>
+        <v>-31.27333333333333</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-28.91098926894704</v>
+        <v>-28.91098926894701</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-2.36234406438631</v>
+        <v>-2.362344064386324</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1185,13 +1185,13 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-31.12761904761907</v>
+        <v>-31.12761904761905</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-28.84991281019453</v>
+        <v>-28.8499128101945</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-2.277706237424535</v>
+        <v>-2.277706237424553</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1202,13 +1202,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-30.97857142857145</v>
+        <v>-30.97857142857143</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-28.78883635144201</v>
+        <v>-28.78883635144198</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-2.189735077129434</v>
+        <v>-2.189735077129448</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1219,13 +1219,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-30.82714285714288</v>
+        <v>-30.82714285714286</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-28.7277598926895</v>
+        <v>-28.72775989268947</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-2.09938296445338</v>
+        <v>-2.099382964453394</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1236,13 +1236,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-30.67380952380955</v>
+        <v>-30.67380952380953</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-28.66668343393698</v>
+        <v>-28.66668343393695</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-2.00712608987256</v>
+        <v>-2.007126089872575</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1253,13 +1253,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-30.52190476190478</v>
+        <v>-30.52190476190476</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-28.60560697518447</v>
+        <v>-28.60560697518444</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-1.916297786720307</v>
+        <v>-1.916297786720328</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1270,13 +1270,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-30.37142857142859</v>
+        <v>-30.37142857142857</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-28.54453051643195</v>
+        <v>-28.54453051643192</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-1.826898054996633</v>
+        <v>-1.826898054996651</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1287,13 +1287,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-30.22000000000002</v>
+        <v>-30.22</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-28.48345405767944</v>
+        <v>-28.48345405767941</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-1.736545942320582</v>
+        <v>-1.736545942320596</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1304,13 +1304,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-30.06952380952383</v>
+        <v>-30.06952380952381</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-28.42237759892692</v>
+        <v>-28.42237759892689</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-1.647146210596905</v>
+        <v>-1.647146210596919</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1321,13 +1321,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-29.91761904761907</v>
+        <v>-29.91761904761906</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-28.36130114017441</v>
+        <v>-28.36130114017438</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-1.556317907444658</v>
+        <v>-1.556317907444679</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1338,13 +1338,13 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-29.76380952380954</v>
+        <v>-29.76380952380953</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-28.30022468142189</v>
+        <v>-28.30022468142186</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-1.463584842387647</v>
+        <v>-1.463584842387665</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1355,13 +1355,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-29.60761904761907</v>
+        <v>-29.60761904761905</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-28.23914822266938</v>
+        <v>-28.23914822266935</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-1.368470824949689</v>
+        <v>-1.368470824949704</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1372,13 +1372,13 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-29.45047619047621</v>
+        <v>-29.45047619047619</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-28.17807176391686</v>
+        <v>-28.17807176391683</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-1.272404426559344</v>
+        <v>-1.272404426559358</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1389,13 +1389,13 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-29.29047619047621</v>
+        <v>-29.29047619047619</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-28.11699530516435</v>
+        <v>-28.11699530516432</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-1.173480885311861</v>
+        <v>-1.173480885311879</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1406,13 +1406,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-29.12666666666669</v>
+        <v>-29.12666666666667</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-28.05591884641183</v>
+        <v>-28.0559188464118</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-1.070747820254855</v>
+        <v>-1.070747820254869</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1423,13 +1423,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-28.96333333333335</v>
+        <v>-28.96333333333334</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-27.99484238765932</v>
+        <v>-27.99484238765929</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.9684909456740343</v>
+        <v>-0.9684909456740485</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1440,13 +1440,13 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-28.80047619047621</v>
+        <v>-28.80047619047619</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-27.9337659289068</v>
+        <v>-27.93376592890677</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.8667102615694091</v>
+        <v>-0.8667102615694162</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1457,13 +1457,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-28.63809523809526</v>
+        <v>-28.63809523809524</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-27.87268947015429</v>
+        <v>-27.87268947015426</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.7654057679409689</v>
+        <v>-0.7654057679409796</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1474,13 +1474,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-28.47857142857145</v>
+        <v>-28.47857142857143</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-27.81161301140177</v>
+        <v>-27.81161301140174</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.6669584171696705</v>
+        <v>-0.6669584171696883</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1491,13 +1491,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-28.32333333333335</v>
+        <v>-28.32333333333334</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-27.75053655264926</v>
+        <v>-27.75053655264923</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.5727967806840901</v>
+        <v>-0.5727967806841079</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1508,13 +1508,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-28.1709523809524</v>
+        <v>-28.17095238095239</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-27.68946009389674</v>
+        <v>-27.68946009389671</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.4814922870556586</v>
+        <v>-0.4814922870556728</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1525,13 +1525,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-28.02285714285716</v>
+        <v>-28.02285714285714</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-27.62838363514423</v>
+        <v>-27.6283836351442</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.3944735077129344</v>
+        <v>-0.3944735077129451</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1542,13 +1542,13 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-27.88523809523812</v>
+        <v>-27.8852380952381</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-27.56730717639171</v>
+        <v>-27.56730717639168</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.3179309188464039</v>
+        <v>-0.3179309188464146</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1559,13 +1559,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-27.75428571428573</v>
+        <v>-27.75428571428571</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-27.5062307176392</v>
+        <v>-27.50623071763917</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.248054996646534</v>
+        <v>-0.2480549966465446</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1576,13 +1576,13 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-27.63333333333335</v>
+        <v>-27.63333333333334</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-27.44515425888668</v>
+        <v>-27.44515425888665</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.1881790744466691</v>
+        <v>-0.1881790744466834</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1593,13 +1593,13 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-27.52333333333335</v>
+        <v>-27.52333333333334</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-27.38407780013417</v>
+        <v>-27.38407780013414</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.1392555331991865</v>
+        <v>-0.1392555331992007</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1610,13 +1610,13 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-27.41857142857145</v>
+        <v>-27.41857142857143</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-27.32300134138165</v>
+        <v>-27.32300134138163</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.09557008718979532</v>
+        <v>-0.09557008718980597</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1627,13 +1627,13 @@
         <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-27.31952380952383</v>
+        <v>-27.31952380952381</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-27.26192488262914</v>
+        <v>-27.26192488262911</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.05759892689468771</v>
+        <v>-0.05759892689469837</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1644,13 +1644,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-27.2309523809524</v>
+        <v>-27.23095238095238</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-27.20084842387662</v>
+        <v>-27.20084842387659</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.03010395707577374</v>
+        <v>-0.03010395707578795</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1661,13 +1661,13 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-27.1509523809524</v>
+        <v>-27.15095238095238</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-27.1397719651241</v>
+        <v>-27.13977196512408</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.01118041582829576</v>
+        <v>-0.01118041582830287</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1678,13 +1678,13 @@
         <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-27.07952380952383</v>
+        <v>-27.07952380952381</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-27.07869550637159</v>
+        <v>-27.07869550637157</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.0008283031522395845</v>
+        <v>-0.0008283031522466899</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1695,13 +1695,13 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-27.01761904761906</v>
+        <v>-27.01761904761905</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-27.01761904761908</v>
+        <v>-27.01761904761905</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1712,10 +1712,10 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-26.96476190476192</v>
+        <v>-26.96476190476191</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-26.96476190476192</v>
+        <v>-26.96476190476191</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-26.91714285714287</v>
+        <v>-26.91714285714286</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-26.91714285714287</v>
+        <v>-26.91714285714286</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-26.87714285714287</v>
+        <v>-26.87714285714286</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-26.87714285714287</v>
+        <v>-26.87714285714286</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-26.84476190476192</v>
+        <v>-26.84476190476191</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-26.84476190476192</v>
+        <v>-26.84476190476191</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-26.81857142857145</v>
+        <v>-26.81857142857143</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-26.81857142857145</v>
+        <v>-26.81857142857143</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0</v>
@@ -1797,10 +1797,10 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-26.80000000000002</v>
+        <v>-26.8</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-26.80000000000002</v>
+        <v>-26.8</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0</v>
@@ -1814,10 +1814,10 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-26.78809523809525</v>
+        <v>-26.78809523809524</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-26.78809523809525</v>
+        <v>-26.78809523809524</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0</v>
@@ -1831,10 +1831,10 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-26.78142857142859</v>
+        <v>-26.78142857142857</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-26.78142857142859</v>
+        <v>-26.78142857142857</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0</v>
@@ -1848,10 +1848,10 @@
         <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-26.78142857142859</v>
+        <v>-26.78142857142857</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-26.78142857142859</v>
+        <v>-26.78142857142857</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-26.78714285714288</v>
+        <v>-26.78714285714286</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-26.78714285714288</v>
+        <v>-26.78714285714286</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-26.80142857142859</v>
+        <v>-26.80142857142857</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-26.80142857142859</v>
+        <v>-26.80142857142857</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-26.82142857142859</v>
+        <v>-26.82142857142858</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-26.82142857142859</v>
+        <v>-26.82142857142858</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-26.84809523809525</v>
+        <v>-26.84809523809524</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-26.84809523809525</v>
+        <v>-26.84809523809524</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-26.88190476190478</v>
+        <v>-26.88190476190476</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-26.88190476190478</v>
+        <v>-26.88190476190476</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-26.91761904761907</v>
+        <v>-26.91761904761905</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-26.91761904761907</v>
+        <v>-26.91761904761905</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1967,10 +1967,10 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-26.95809523809525</v>
+        <v>-26.95809523809524</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-26.95809523809525</v>
+        <v>-26.95809523809524</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1984,10 +1984,10 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-27.0057142857143</v>
+        <v>-27.00571428571429</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-27.0057142857143</v>
+        <v>-27.00571428571429</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-27.05809523809526</v>
+        <v>-27.05809523809524</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-27.05809523809526</v>
+        <v>-27.05809523809524</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2018,10 +2018,10 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-27.11666666666668</v>
+        <v>-27.11666666666667</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-27.11666666666668</v>
+        <v>-27.11666666666667</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-27.18333333333335</v>
+        <v>-27.18333333333334</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-27.18333333333335</v>
+        <v>-27.18333333333334</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-27.25190476190478</v>
+        <v>-27.25190476190477</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-27.25190476190478</v>
+        <v>-27.25190476190477</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2069,10 +2069,10 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-27.32428571428573</v>
+        <v>-27.32428571428571</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-27.32428571428573</v>
+        <v>-27.32428571428571</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-27.40190476190478</v>
+        <v>-27.40190476190477</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-27.40190476190478</v>
+        <v>-27.40190476190477</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-27.48333333333335</v>
+        <v>-27.48333333333333</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-27.48333333333335</v>
+        <v>-27.48333333333333</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-27.56761904761906</v>
+        <v>-27.56761904761905</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-27.56761904761906</v>
+        <v>-27.56761904761905</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-27.65857142857145</v>
+        <v>-27.65857142857143</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-27.65857142857145</v>
+        <v>-27.65857142857143</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2154,10 +2154,10 @@
         <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-27.75190476190478</v>
+        <v>-27.75190476190476</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-27.75190476190478</v>
+        <v>-27.75190476190476</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-27.84904761904764</v>
+        <v>-27.84904761904762</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-27.84904761904764</v>
+        <v>-27.84904761904762</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2188,10 +2188,10 @@
         <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-27.9509523809524</v>
+        <v>-27.95095238095238</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-27.9509523809524</v>
+        <v>-27.95095238095238</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>-0.408</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>-28.05904761904764</v>
+        <v>-28.05904761904762</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>-28.05904761904764</v>
+        <v>-28.05904761904762</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>-0.416</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-28.28904761904764</v>
+        <v>-28.28904761904762</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>-28.28904761904764</v>
+        <v>-28.28904761904762</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>-0.42</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-28.41285714285716</v>
+        <v>-28.41285714285715</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>-28.41285714285716</v>
+        <v>-28.41285714285715</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>0</v>
@@ -2273,10 +2273,10 @@
         <v>-0.424</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>-28.53809523809526</v>
+        <v>-28.53809523809524</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>-28.53809523809526</v>
+        <v>-28.53809523809524</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>-0.428</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>-28.66523809523811</v>
+        <v>-28.6652380952381</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>-28.66523809523811</v>
+        <v>-28.6652380952381</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>-0.432</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-28.7961904761905</v>
+        <v>-28.79619047619048</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>-28.7961904761905</v>
+        <v>-28.79619047619048</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>-0.436</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>-28.92904761904764</v>
+        <v>-28.92904761904762</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>-28.92904761904764</v>
+        <v>-28.92904761904762</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>0</v>
@@ -2341,10 +2341,10 @@
         <v>-0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>-29.06761904761906</v>
+        <v>-29.06761904761905</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>-29.06761904761906</v>
+        <v>-29.06761904761905</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>-0.444</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-29.21285714285716</v>
+        <v>-29.21285714285715</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>-29.21285714285716</v>
+        <v>-29.21285714285715</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>-0.448</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>-29.35857142857145</v>
+        <v>-29.35857142857143</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>-29.35857142857145</v>
+        <v>-29.35857142857143</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0</v>
@@ -2392,10 +2392,10 @@
         <v>-0.452</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-29.50761904761907</v>
+        <v>-29.50761904761905</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>-29.50761904761907</v>
+        <v>-29.50761904761905</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>-0.456</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>-29.66333333333335</v>
+        <v>-29.66333333333333</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>-29.66333333333335</v>
+        <v>-29.66333333333333</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>0</v>
@@ -2426,10 +2426,10 @@
         <v>-0.46</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>-29.8209523809524</v>
+        <v>-29.82095238095238</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>-29.8209523809524</v>
+        <v>-29.82095238095238</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
         <v>-0.464</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>-29.98571428571431</v>
+        <v>-29.98571428571429</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>-29.98571428571431</v>
+        <v>-29.98571428571429</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>-0.468</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>-30.15476190476192</v>
+        <v>-30.15476190476191</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>-30.15476190476192</v>
+        <v>-30.15476190476191</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>-0.472</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>-30.32571428571431</v>
+        <v>-30.32571428571429</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>-30.32571428571431</v>
+        <v>-30.32571428571429</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>-0.476</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-30.50190476190478</v>
+        <v>-30.50190476190476</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>-30.50190476190478</v>
+        <v>-30.50190476190476</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>0</v>
@@ -2511,10 +2511,10 @@
         <v>-0.48</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-30.68190476190479</v>
+        <v>-30.68190476190477</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>-30.68190476190479</v>
+        <v>-30.68190476190477</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0</v>
@@ -2528,10 +2528,10 @@
         <v>-0.484</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-30.86476190476193</v>
+        <v>-30.86476190476191</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>-30.86476190476193</v>
+        <v>-30.86476190476191</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>-0.488</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>-31.05523809523812</v>
+        <v>-31.0552380952381</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>-31.05523809523812</v>
+        <v>-31.0552380952381</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0</v>
@@ -2562,10 +2562,10 @@
         <v>-0.492</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-31.24928571428576</v>
+        <v>-31.24928571428574</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>-31.24928571428576</v>
+        <v>-31.24928571428574</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -2596,10 +2596,10 @@
         <v>-0.5</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>-31.65095238095243</v>
+        <v>-31.65095238095245</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>-31.65095238095243</v>
+        <v>-31.65095238095245</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.5214386317907334</v>
+        <v>-0.5214386317907689</v>
       </c>
     </row>
     <row r="3">
@@ -2656,7 +2656,7 @@
         <v>-0.136</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-2.648618376928226</v>
+        <v>-2.648618376928241</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp8.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,58 +477,54 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-31.3540476190476</v>
+        <v>-31.99952380952383</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-31.35404761904761</v>
+        <v>-31.99952380952381</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.152</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.5214386317907689</v>
+        <v>-1.063773809523827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-31.67976190476191</v>
+        <v>-32.04190476190477</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-31.29297116029509</v>
+        <v>-31.89036904761905</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3867907444668219</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="n">
-        <v>-0.136</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>-2.648618376928241</v>
-      </c>
+        <v>-0.1515357142857248</v>
+      </c>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-31.75333333333334</v>
+        <v>-32.07690476190478</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-31.23189470154258</v>
+        <v>-31.78121428571429</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5214386317907689</v>
+        <v>-0.2956904761904902</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -536,16 +532,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-31.66809523809524</v>
+        <v>-32.10285714285716</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-31.17081824279006</v>
+        <v>-31.67205952380953</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4972769953051817</v>
+        <v>-0.4307976190476346</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -553,16 +549,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-31.53095238095238</v>
+        <v>-32.11857142857145</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-31.10974178403755</v>
+        <v>-31.56290476190476</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.4212105969148361</v>
+        <v>-0.555666666666685</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -570,16 +566,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-31.44333333333334</v>
+        <v>-32.12000000000002</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-31.04866532528503</v>
+        <v>-31.45375</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3946680080483063</v>
+        <v>-0.6662500000000158</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -587,16 +583,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-31.36809523809524</v>
+        <v>-32.10809523809526</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-30.98758886653252</v>
+        <v>-31.34459523809524</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3805063715627277</v>
+        <v>-0.7635000000000183</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -604,16 +600,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-31.31190476190476</v>
+        <v>-32.08142857142859</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-30.92651240778</v>
+        <v>-31.23544047619048</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.3853923541247646</v>
+        <v>-0.8459880952381091</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -621,16 +617,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-31.27571428571429</v>
+        <v>-32.0414285714286</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-30.86543594902749</v>
+        <v>-31.12628571428572</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.410278336686801</v>
+        <v>-0.9151428571428788</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -638,16 +634,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-31.25428571428572</v>
+        <v>-31.98714285714287</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-30.80435949027497</v>
+        <v>-31.01713095238096</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4499262240107491</v>
+        <v>-0.9700119047619182</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -655,16 +651,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-31.24619047619048</v>
+        <v>-31.92142857142859</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-30.74328303152246</v>
+        <v>-30.90797619047619</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.502907444668022</v>
+        <v>-1.013452380952398</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -672,16 +668,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-31.25476190476191</v>
+        <v>-31.84047619047621</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-30.68220657276994</v>
+        <v>-30.79882142857143</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.5725553319919641</v>
+        <v>-1.041654761904777</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -689,16 +685,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-31.27523809523809</v>
+        <v>-31.74666666666669</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-30.62113011401743</v>
+        <v>-30.68966666666667</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.6541079812206689</v>
+        <v>-1.057000000000016</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -706,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-31.31285714285714</v>
+        <v>-31.64428571428574</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-30.56005365526491</v>
+        <v>-30.58051190476191</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.7528034875922316</v>
+        <v>-1.063773809523827</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -723,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-31.36238095238095</v>
+        <v>-31.53000000000002</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-30.4989771965124</v>
+        <v>-30.47135714285715</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.863403755868557</v>
+        <v>-1.058642857142871</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -740,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-31.41952380952382</v>
+        <v>-31.4057142857143</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-30.43790073775988</v>
+        <v>-30.36220238095239</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.9816230717639343</v>
+        <v>-1.043511904761917</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -757,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-31.48095238095238</v>
+        <v>-31.27333333333335</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-30.37682427900737</v>
+        <v>-30.25304761904762</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1.104128101945019</v>
+        <v>-1.020285714285727</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -774,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-31.54952380952381</v>
+        <v>-31.12761904761907</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-30.31574782025485</v>
+        <v>-30.14389285714286</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.23377598926896</v>
+        <v>-0.9837261904762045</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -791,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-31.61904761904763</v>
+        <v>-30.97857142857145</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-30.25467136150234</v>
+        <v>-30.0347380952381</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.364376257545292</v>
+        <v>-0.9438333333333446</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -808,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-31.69095238095239</v>
+        <v>-30.82714285714288</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-30.19359490274982</v>
+        <v>-29.92558333333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.497357478202563</v>
+        <v>-0.9015595238095386</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -825,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-31.7604761904762</v>
+        <v>-30.67380952380955</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-30.13251844399731</v>
+        <v>-29.81642857142858</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.627957746478891</v>
+        <v>-0.8573809523809679</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -842,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-31.82809523809524</v>
+        <v>-30.52190476190478</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-30.07144198524479</v>
+        <v>-29.70727380952382</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.756653252850452</v>
+        <v>-0.8146309523809627</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -859,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-31.89190476190476</v>
+        <v>-30.37142857142859</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-30.01036552649228</v>
+        <v>-29.59811904761905</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.881539235412482</v>
+        <v>-0.7733095238095338</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -876,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-31.94857142857143</v>
+        <v>-30.22000000000002</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-29.94928906773976</v>
+        <v>-29.48896428571429</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.999282360831671</v>
+        <v>-0.7310357142857278</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -893,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-31.99952380952381</v>
+        <v>-30.06952380952383</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-29.88821260898725</v>
+        <v>-29.37980952380953</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-2.111311200536562</v>
+        <v>-0.6897142857142988</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -910,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-32.04238095238095</v>
+        <v>-29.91761904761907</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-29.82713615023473</v>
+        <v>-29.27065476190477</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-2.21524480214622</v>
+        <v>-0.6469642857142972</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -927,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-32.07714285714286</v>
+        <v>-29.76380952380955</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-29.76605969148222</v>
+        <v>-29.16150000000001</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-2.311083165660641</v>
+        <v>-0.602309523809538</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -944,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-32.10285714285715</v>
+        <v>-29.60761904761906</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-29.7049832327297</v>
+        <v>-29.05234523809525</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-2.397873910127444</v>
+        <v>-0.5552738095238183</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -961,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-32.11857142857143</v>
+        <v>-29.45047619047621</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-29.64390677397719</v>
+        <v>-28.94319047619048</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-2.474664654594239</v>
+        <v>-0.5072857142857252</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -978,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-32.12</v>
+        <v>-29.29047619047621</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-29.58283031522467</v>
+        <v>-28.83403571428572</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-2.537169684775332</v>
+        <v>-0.4564404761904832</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -995,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-32.10809523809524</v>
+        <v>-29.12666666666669</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-29.52175385647216</v>
+        <v>-28.72488095238096</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-2.586341381623079</v>
+        <v>-0.401785714285726</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1012,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-32.08142857142857</v>
+        <v>-28.96333333333335</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-29.46067739771964</v>
+        <v>-28.6157261904762</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-2.620751173708932</v>
+        <v>-0.3476071428571537</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1029,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-32.04142857142858</v>
+        <v>-28.80047619047621</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-29.39960093896713</v>
+        <v>-28.50657142857143</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-2.641827632461446</v>
+        <v>-0.2939047619047734</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1046,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-31.98714285714286</v>
+        <v>-28.63809523809525</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-29.33852448021462</v>
+        <v>-28.39741666666667</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-2.648618376928241</v>
+        <v>-0.2406785714285817</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1063,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-31.92142857142857</v>
+        <v>-28.47857142857145</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-29.2774480214621</v>
+        <v>-28.28826190476191</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-2.643980549966475</v>
+        <v>-0.1903095238095354</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1080,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-31.8404761904762</v>
+        <v>-28.32333333333335</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-29.21637156270959</v>
+        <v>-28.17910714285715</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-2.624104627766609</v>
+        <v>-0.1442261904761963</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1097,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-31.74666666666667</v>
+        <v>-28.1709523809524</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-29.15529510395707</v>
+        <v>-28.06995238095239</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-2.5913715627096</v>
+        <v>-0.1010000000000133</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1114,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-31.64428571428572</v>
+        <v>-28.02285714285716</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-29.09421864520456</v>
+        <v>-27.96079761904763</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-2.550067069081162</v>
+        <v>-0.06205952380953761</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1131,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-31.53</v>
+        <v>-27.88523809523812</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-29.03314218645204</v>
+        <v>-27.85164285714286</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-2.496857813547962</v>
+        <v>-0.033595238095252</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1148,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-31.40571428571429</v>
+        <v>-27.75428571428573</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-28.97206572769953</v>
+        <v>-27.7424880952381</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-2.433648558014763</v>
+        <v>-0.01179761904762699</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1165,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-31.27333333333333</v>
+        <v>-27.63333333333335</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-28.91098926894701</v>
+        <v>-27.63333333333334</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-2.362344064386324</v>
+        <v>-1.06581410364015e-14</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1182,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-31.12761904761905</v>
+        <v>-27.52333333333335</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-28.8499128101945</v>
+        <v>-27.52333333333335</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-2.277706237424553</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1199,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-30.97857142857143</v>
+        <v>-27.41857142857145</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-28.78883635144198</v>
+        <v>-27.41857142857145</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-2.189735077129448</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1216,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-30.82714285714286</v>
+        <v>-27.31952380952382</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-28.72775989268947</v>
+        <v>-27.31952380952382</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-2.099382964453394</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1233,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-30.67380952380953</v>
+        <v>-27.2309523809524</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-28.66668343393695</v>
+        <v>-27.2309523809524</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-2.007126089872575</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1250,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-30.52190476190476</v>
+        <v>-27.1509523809524</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-28.60560697518444</v>
+        <v>-27.1509523809524</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-1.916297786720328</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1267,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-30.37142857142857</v>
+        <v>-27.07952380952383</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-28.54453051643192</v>
+        <v>-27.07952380952383</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-1.826898054996651</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1284,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-30.22</v>
+        <v>-27.01761904761906</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-28.48345405767941</v>
+        <v>-27.01761904761906</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-1.736545942320596</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1301,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-30.06952380952381</v>
+        <v>-26.96476190476192</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-28.42237759892689</v>
+        <v>-26.96476190476192</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-1.647146210596919</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1318,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-29.91761904761906</v>
+        <v>-26.91714285714287</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-28.36130114017438</v>
+        <v>-26.91714285714287</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-1.556317907444679</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1335,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-29.76380952380953</v>
+        <v>-26.87714285714287</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-28.30022468142186</v>
+        <v>-26.87714285714287</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-1.463584842387665</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1352,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-29.60761904761905</v>
+        <v>-26.84476190476192</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-28.23914822266935</v>
+        <v>-26.84476190476192</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-1.368470824949704</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1369,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-29.45047619047619</v>
+        <v>-26.81857142857145</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-28.17807176391683</v>
+        <v>-26.81857142857145</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-1.272404426559358</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1386,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-29.29047619047619</v>
+        <v>-26.80000000000002</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-28.11699530516432</v>
+        <v>-26.80000000000002</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-1.173480885311879</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1403,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-29.12666666666667</v>
+        <v>-26.78809523809526</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-28.0559188464118</v>
+        <v>-26.78809523809526</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-1.070747820254869</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1420,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-28.96333333333334</v>
+        <v>-26.78142857142859</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-27.99484238765929</v>
+        <v>-26.78142857142859</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.9684909456740485</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1437,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-28.80047619047619</v>
+        <v>-26.78142857142859</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-27.93376592890677</v>
+        <v>-26.78142857142859</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.8667102615694162</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1454,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-28.63809523809524</v>
+        <v>-26.78714285714288</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-27.87268947015426</v>
+        <v>-26.78714285714288</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.7654057679409796</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1471,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-28.47857142857143</v>
+        <v>-26.80142857142859</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-27.81161301140174</v>
+        <v>-26.80142857142859</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.6669584171696883</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1488,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-28.32333333333334</v>
+        <v>-26.82142857142859</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-27.75053655264923</v>
+        <v>-26.82142857142859</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.5727967806841079</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1505,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-28.17095238095239</v>
+        <v>-26.84809523809525</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-27.68946009389671</v>
+        <v>-26.84809523809525</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.4814922870556728</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1522,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-28.02285714285714</v>
+        <v>-26.88190476190478</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-27.6283836351442</v>
+        <v>-26.88190476190478</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.3944735077129451</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1539,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-27.8852380952381</v>
+        <v>-26.91761904761906</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-27.56730717639168</v>
+        <v>-26.91761904761906</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.3179309188464146</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1556,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-27.75428571428571</v>
+        <v>-26.95809523809525</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-27.50623071763917</v>
+        <v>-26.95809523809525</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.2480549966465446</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1573,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-27.63333333333334</v>
+        <v>-27.0057142857143</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-27.44515425888665</v>
+        <v>-27.0057142857143</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.1881790744466834</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1590,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-27.52333333333334</v>
+        <v>-27.05809523809526</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-27.38407780013414</v>
+        <v>-27.05809523809526</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.1392555331992007</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1607,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-27.41857142857143</v>
+        <v>-27.11666666666668</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-27.32300134138163</v>
+        <v>-27.11666666666668</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.09557008718980597</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1624,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-27.31952380952381</v>
+        <v>-27.18333333333335</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-27.26192488262911</v>
+        <v>-27.18333333333335</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.05759892689469837</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1641,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-27.23095238095238</v>
+        <v>-27.25190476190478</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-27.20084842387659</v>
+        <v>-27.25190476190478</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.03010395707578795</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1658,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-27.15095238095238</v>
+        <v>-27.32428571428573</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-27.13977196512408</v>
+        <v>-27.32428571428573</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.01118041582830287</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1675,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-27.07952380952381</v>
+        <v>-27.40190476190478</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-27.07869550637157</v>
+        <v>-27.40190476190478</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.0008283031522466899</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1692,13 +1688,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-27.01761904761905</v>
+        <v>-27.48333333333335</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-27.01761904761905</v>
+        <v>-27.48333333333335</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1709,13 +1705,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-26.96476190476191</v>
+        <v>-27.56761904761906</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-26.96476190476191</v>
+        <v>-27.56761904761906</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1726,13 +1722,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-26.91714285714286</v>
+        <v>-27.65857142857145</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-26.91714285714286</v>
+        <v>-27.65857142857145</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1743,13 +1739,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-26.87714285714286</v>
+        <v>-27.75190476190478</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-26.87714285714286</v>
+        <v>-27.75190476190478</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1760,13 +1756,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-26.84476190476191</v>
+        <v>-27.84904761904764</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-26.84476190476191</v>
+        <v>-27.84904761904764</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1777,13 +1773,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-26.81857142857143</v>
+        <v>-27.9509523809524</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-26.81857142857143</v>
+        <v>-27.9509523809524</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0</v>
@@ -1794,13 +1790,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-26.8</v>
+        <v>-28.05904761904764</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-26.8</v>
+        <v>-28.05904761904764</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0</v>
@@ -1811,13 +1807,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-26.78809523809524</v>
+        <v>-28.1709523809524</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-26.78809523809524</v>
+        <v>-28.1709523809524</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0</v>
@@ -1828,13 +1824,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-26.78142857142857</v>
+        <v>-28.28904761904764</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-26.78142857142857</v>
+        <v>-28.28904761904764</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0</v>
@@ -1845,13 +1841,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-26.78142857142857</v>
+        <v>-28.41285714285716</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-26.78142857142857</v>
+        <v>-28.41285714285716</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>0</v>
@@ -1862,13 +1858,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-26.78714285714286</v>
+        <v>-28.53809523809526</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-26.78714285714286</v>
+        <v>-28.53809523809526</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>0</v>
@@ -1879,13 +1875,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-26.80142857142857</v>
+        <v>-28.66523809523812</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-26.80142857142857</v>
+        <v>-28.66523809523812</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>0</v>
@@ -1896,13 +1892,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-26.82142857142858</v>
+        <v>-28.7961904761905</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-26.82142857142858</v>
+        <v>-28.7961904761905</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0</v>
@@ -1913,13 +1909,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-26.84809523809524</v>
+        <v>-28.92904761904764</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-26.84809523809524</v>
+        <v>-28.92904761904764</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0</v>
@@ -1930,13 +1926,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-26.88190476190476</v>
+        <v>-29.06761904761906</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-26.88190476190476</v>
+        <v>-29.06761904761906</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0</v>
@@ -1947,13 +1943,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-26.91761904761905</v>
+        <v>-29.21285714285716</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-26.91761904761905</v>
+        <v>-29.21285714285716</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1964,13 +1960,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-26.95809523809524</v>
+        <v>-29.35857142857145</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-26.95809523809524</v>
+        <v>-29.35857142857145</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1981,13 +1977,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-27.00571428571429</v>
+        <v>-29.50761904761907</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-27.00571428571429</v>
+        <v>-29.50761904761907</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -1998,13 +1994,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-27.05809523809524</v>
+        <v>-29.66333333333335</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-27.05809523809524</v>
+        <v>-29.66333333333335</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2015,13 +2011,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-27.11666666666667</v>
+        <v>-29.8209523809524</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-27.11666666666667</v>
+        <v>-29.8209523809524</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2032,13 +2028,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-27.18333333333334</v>
+        <v>-29.9857142857143</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-27.18333333333334</v>
+        <v>-29.9857142857143</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2049,13 +2045,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-27.25190476190477</v>
+        <v>-30.15476190476192</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-27.25190476190477</v>
+        <v>-30.15476190476192</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2066,13 +2062,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-27.32428571428571</v>
+        <v>-30.32571428571431</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-27.32428571428571</v>
+        <v>-30.32571428571431</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2083,13 +2079,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-27.40190476190477</v>
+        <v>-30.50190476190478</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-27.40190476190477</v>
+        <v>-30.50190476190478</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2100,13 +2096,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-27.48333333333333</v>
+        <v>-30.68190476190478</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-27.48333333333333</v>
+        <v>-30.68190476190478</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2117,13 +2113,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-27.56761904761905</v>
+        <v>-30.86476190476192</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-27.56761904761905</v>
+        <v>-30.86476190476192</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2134,13 +2130,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-27.65857142857143</v>
+        <v>-31.05523809523812</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-27.65857142857143</v>
+        <v>-31.05523809523812</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2151,13 +2147,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-27.75190476190476</v>
+        <v>-31.24928571428576</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-27.75190476190476</v>
+        <v>-31.24928571428576</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2168,13 +2164,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-27.84904761904762</v>
+        <v>-31.44785714285719</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-27.84904761904762</v>
+        <v>-31.44785714285719</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2185,13 +2181,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-27.95095238095238</v>
+        <v>-31.65095238095243</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-27.95095238095238</v>
+        <v>-31.65095238095243</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2199,414 +2195,6 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-28.05904761904762</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-28.05904761904762</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-28.17095238095239</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-28.17095238095239</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-28.28904761904762</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-28.28904761904762</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-28.41285714285715</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-28.41285714285715</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-28.53809523809524</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-28.53809523809524</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-28.6652380952381</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-28.6652380952381</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-28.79619047619048</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-28.79619047619048</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-28.92904761904762</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-28.92904761904762</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-29.06761904761905</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-29.06761904761905</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-29.21285714285715</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-29.21285714285715</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-29.35857142857143</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-29.35857142857143</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-29.50761904761905</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-29.50761904761905</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-29.66333333333333</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-29.66333333333333</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-29.82095238095238</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-29.82095238095238</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-29.98571428571429</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-29.98571428571429</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-30.15476190476191</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-30.15476190476191</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-30.32571428571429</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-30.32571428571429</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-30.50190476190476</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-30.50190476190476</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-30.68190476190477</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-30.68190476190477</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-30.86476190476191</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-30.86476190476191</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-31.0552380952381</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-31.0552380952381</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-31.24928571428574</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-31.24928571428574</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-31.44785714285719</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-31.44785714285719</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-31.65095238095245</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-31.65095238095245</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2619,7 +2207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2645,18 +2233,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.152</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.5214386317907689</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>-0.136</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>-2.648618376928241</v>
+        <v>-1.063773809523827</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp8.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,54 +477,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-31.99952380952383</v>
+        <v>-31.35404761904764</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-31.99952380952381</v>
+        <v>-31.35404761904764</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-1.063773809523827</v>
+        <v>-0.5214386317907405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-32.04190476190477</v>
+        <v>-31.67976190476192</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-31.89036904761905</v>
+        <v>-31.29297116029512</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1515357142857248</v>
-      </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
+        <v>-0.3867907444667971</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>-0.136</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-2.648618376928237</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-32.07690476190478</v>
+        <v>-31.75333333333335</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-31.78121428571429</v>
+        <v>-31.23189470154261</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2956904761904902</v>
+        <v>-0.5214386317907405</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -532,16 +536,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-32.10285714285716</v>
+        <v>-31.66809523809526</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-31.67205952380953</v>
+        <v>-31.17081824279009</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4307976190476346</v>
+        <v>-0.4972769953051639</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -549,16 +553,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-32.11857142857145</v>
+        <v>-31.5309523809524</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-31.56290476190476</v>
+        <v>-31.10974178403758</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.555666666666685</v>
+        <v>-0.4212105969148219</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -566,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-32.12000000000002</v>
+        <v>-31.44333333333336</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-31.45375</v>
+        <v>-31.04866532528506</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.6662500000000158</v>
+        <v>-0.3946680080482921</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -583,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-32.10809523809526</v>
+        <v>-31.36809523809526</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-31.34459523809524</v>
+        <v>-30.98758886653255</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.7635000000000183</v>
+        <v>-0.3805063715627099</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -600,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-32.08142857142859</v>
+        <v>-31.31190476190478</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-31.23544047619048</v>
+        <v>-30.92651240778003</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.8459880952381091</v>
+        <v>-0.3853923541247468</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -617,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-32.0414285714286</v>
+        <v>-31.2757142857143</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-31.12628571428572</v>
+        <v>-30.86543594902752</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.9151428571428788</v>
+        <v>-0.4102783366867868</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -634,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-31.98714285714287</v>
+        <v>-31.25428571428574</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-31.01713095238096</v>
+        <v>-30.804359490275</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.9700119047619182</v>
+        <v>-0.4499262240107313</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -651,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-31.92142857142859</v>
+        <v>-31.2461904761905</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-30.90797619047619</v>
+        <v>-30.74328303152249</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-1.013452380952398</v>
+        <v>-0.5029074446680113</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -668,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-31.84047619047621</v>
+        <v>-31.25476190476193</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-30.79882142857143</v>
+        <v>-30.68220657276997</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.041654761904777</v>
+        <v>-0.5725553319919534</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -685,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-31.74666666666669</v>
+        <v>-31.27523809523811</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-30.68966666666667</v>
+        <v>-30.62113011401746</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.057000000000016</v>
+        <v>-0.6541079812206547</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -702,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-31.64428571428574</v>
+        <v>-31.31285714285716</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-30.58051190476191</v>
+        <v>-30.56005365526494</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-1.063773809523827</v>
+        <v>-0.7528034875922174</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-31.53000000000002</v>
+        <v>-31.36238095238097</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-30.47135714285715</v>
+        <v>-30.49897719651243</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.058642857142871</v>
+        <v>-0.8634037558685428</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-31.4057142857143</v>
+        <v>-31.41952380952383</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-30.36220238095239</v>
+        <v>-30.43790073775991</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.043511904761917</v>
+        <v>-0.9816230717639201</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-31.27333333333335</v>
+        <v>-31.4809523809524</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-30.25304761904762</v>
+        <v>-30.3768242790074</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1.020285714285727</v>
+        <v>-1.104128101945005</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-31.12761904761907</v>
+        <v>-31.54952380952383</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-30.14389285714286</v>
+        <v>-30.31574782025488</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.9837261904762045</v>
+        <v>-1.233775989268949</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-30.97857142857145</v>
+        <v>-31.61904761904764</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-30.0347380952381</v>
+        <v>-30.25467136150237</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.9438333333333446</v>
+        <v>-1.364376257545274</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-30.82714285714288</v>
+        <v>-31.6909523809524</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-29.92558333333334</v>
+        <v>-30.19359490274985</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.9015595238095386</v>
+        <v>-1.497357478202552</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-30.67380952380955</v>
+        <v>-31.76047619047621</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-29.81642857142858</v>
+        <v>-30.13251844399734</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.8573809523809679</v>
+        <v>-1.627957746478874</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-30.52190476190478</v>
+        <v>-31.82809523809526</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-29.70727380952382</v>
+        <v>-30.07144198524482</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.8146309523809627</v>
+        <v>-1.756653252850441</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-30.37142857142859</v>
+        <v>-31.89190476190478</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-29.59811904761905</v>
+        <v>-30.01036552649231</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.7733095238095338</v>
+        <v>-1.881539235412475</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-30.22000000000002</v>
+        <v>-31.94857142857145</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-29.48896428571429</v>
+        <v>-29.94928906773979</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.7310357142857278</v>
+        <v>-1.999282360831657</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-30.06952380952383</v>
+        <v>-31.99952380952383</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-29.37980952380953</v>
+        <v>-29.88821260898728</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.6897142857142988</v>
+        <v>-2.111311200536552</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-29.91761904761907</v>
+        <v>-32.04238095238097</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-29.27065476190477</v>
+        <v>-29.82713615023476</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.6469642857142972</v>
+        <v>-2.215244802146213</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-29.76380952380955</v>
+        <v>-32.07714285714287</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-29.16150000000001</v>
+        <v>-29.76605969148225</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.602309523809538</v>
+        <v>-2.311083165660627</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-29.60761904761906</v>
+        <v>-32.10285714285716</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-29.05234523809525</v>
+        <v>-29.70498323272973</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5552738095238183</v>
+        <v>-2.39787391012743</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-29.45047619047621</v>
+        <v>-32.11857142857145</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-28.94319047619048</v>
+        <v>-29.64390677397721</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.5072857142857252</v>
+        <v>-2.474664654594235</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-29.29047619047621</v>
+        <v>-32.12000000000002</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-28.83403571428572</v>
+        <v>-29.5828303152247</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.4564404761904832</v>
+        <v>-2.537169684775318</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-29.12666666666669</v>
+        <v>-32.10809523809526</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-28.72488095238096</v>
+        <v>-29.52175385647218</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.401785714285726</v>
+        <v>-2.586341381623075</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-28.96333333333335</v>
+        <v>-32.08142857142859</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-28.6157261904762</v>
+        <v>-29.46067739771967</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.3476071428571537</v>
+        <v>-2.620751173708918</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-28.80047619047621</v>
+        <v>-32.0414285714286</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-28.50657142857143</v>
+        <v>-29.39960093896715</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.2939047619047734</v>
+        <v>-2.641827632461442</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-28.63809523809525</v>
+        <v>-31.98714285714288</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-28.39741666666667</v>
+        <v>-29.33852448021464</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.2406785714285817</v>
+        <v>-2.648618376928237</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-28.47857142857145</v>
+        <v>-31.92142857142859</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-28.28826190476191</v>
+        <v>-29.27744802146212</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.1903095238095354</v>
+        <v>-2.643980549966468</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-28.32333333333335</v>
+        <v>-31.84047619047621</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-28.17910714285715</v>
+        <v>-29.21637156270961</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.1442261904761963</v>
+        <v>-2.624104627766599</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-28.1709523809524</v>
+        <v>-31.74666666666669</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-28.06995238095239</v>
+        <v>-29.15529510395709</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.1010000000000133</v>
+        <v>-2.591371562709597</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-28.02285714285716</v>
+        <v>-31.64428571428574</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-27.96079761904763</v>
+        <v>-29.09421864520458</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.06205952380953761</v>
+        <v>-2.550067069081155</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-27.88523809523812</v>
+        <v>-31.53000000000002</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-27.85164285714286</v>
+        <v>-29.03314218645206</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.033595238095252</v>
+        <v>-2.496857813547955</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-27.75428571428573</v>
+        <v>-31.4057142857143</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-27.7424880952381</v>
+        <v>-28.97206572769955</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.01179761904762699</v>
+        <v>-2.433648558014752</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-27.63333333333335</v>
+        <v>-31.27333333333335</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-27.63333333333334</v>
+        <v>-28.91098926894703</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-1.06581410364015e-14</v>
+        <v>-2.36234406438632</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-27.52333333333335</v>
+        <v>-31.12761904761907</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-27.52333333333335</v>
+        <v>-28.84991281019452</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0</v>
+        <v>-2.27770623742455</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-27.41857142857145</v>
+        <v>-30.97857142857145</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-27.41857142857145</v>
+        <v>-28.788836351442</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>-2.189735077129445</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-27.31952380952382</v>
+        <v>-30.82714285714288</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-27.31952380952382</v>
+        <v>-28.72775989268949</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>-2.099382964453387</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-27.2309523809524</v>
+        <v>-30.67380952380955</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-27.2309523809524</v>
+        <v>-28.66668343393697</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>-2.007126089872571</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-27.1509523809524</v>
+        <v>-30.52190476190478</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-27.1509523809524</v>
+        <v>-28.60560697518446</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0</v>
+        <v>-1.916297786720321</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-27.07952380952383</v>
+        <v>-30.37142857142859</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-27.07952380952383</v>
+        <v>-28.54453051643194</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0</v>
+        <v>-1.826898054996644</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-27.01761904761906</v>
+        <v>-30.22000000000002</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-27.01761904761906</v>
+        <v>-28.48345405767943</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>-1.736545942320593</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-26.96476190476192</v>
+        <v>-30.06952380952383</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-26.96476190476192</v>
+        <v>-28.42237759892691</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0</v>
+        <v>-1.647146210596915</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-26.91714285714287</v>
+        <v>-29.91761904761907</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-26.91714285714287</v>
+        <v>-28.3613011401744</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0</v>
+        <v>-1.556317907444669</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-26.87714285714287</v>
+        <v>-29.76380952380954</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-26.87714285714287</v>
+        <v>-28.30022468142188</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0</v>
+        <v>-1.463584842387657</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-26.84476190476192</v>
+        <v>-29.60761904761907</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-26.84476190476192</v>
+        <v>-28.23914822266937</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0</v>
+        <v>-1.3684708249497</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-26.81857142857145</v>
+        <v>-29.45047619047621</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-26.81857142857145</v>
+        <v>-28.17807176391685</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0</v>
+        <v>-1.272404426559355</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-26.80000000000002</v>
+        <v>-29.29047619047621</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-26.80000000000002</v>
+        <v>-28.11699530516434</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0</v>
+        <v>-1.173480885311871</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-26.78809523809526</v>
+        <v>-29.12666666666669</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-26.78809523809526</v>
+        <v>-28.05591884641182</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0</v>
+        <v>-1.070747820254869</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-26.78142857142859</v>
+        <v>-28.96333333333335</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-26.78142857142859</v>
+        <v>-27.99484238765931</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0</v>
+        <v>-0.9684909456740449</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-26.78142857142859</v>
+        <v>-28.80047619047621</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-26.78142857142859</v>
+        <v>-27.93376592890679</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0</v>
+        <v>-0.8667102615694198</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-26.78714285714288</v>
+        <v>-28.63809523809526</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-26.78714285714288</v>
+        <v>-27.87268947015428</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0</v>
+        <v>-0.7654057679409796</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-26.80142857142859</v>
+        <v>-28.47857142857145</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-26.80142857142859</v>
+        <v>-27.81161301140176</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0</v>
+        <v>-0.6669584171696847</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-26.82142857142859</v>
+        <v>-28.32333333333335</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-26.82142857142859</v>
+        <v>-27.75053655264925</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0</v>
+        <v>-0.5727967806841008</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1505,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-26.84809523809525</v>
+        <v>-28.1709523809524</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-26.84809523809525</v>
+        <v>-27.68946009389673</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0</v>
+        <v>-0.4814922870556693</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1522,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-26.88190476190478</v>
+        <v>-28.02285714285716</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-26.88190476190478</v>
+        <v>-27.62838363514422</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0</v>
+        <v>-0.3944735077129451</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1539,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-26.91761904761906</v>
+        <v>-27.88523809523812</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-26.91761904761906</v>
+        <v>-27.5673071763917</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0</v>
+        <v>-0.3179309188464146</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1556,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-26.95809523809525</v>
+        <v>-27.75428571428573</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-26.95809523809525</v>
+        <v>-27.50623071763919</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0</v>
+        <v>-0.2480549966465446</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1573,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-27.0057142857143</v>
+        <v>-27.63333333333335</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-27.0057142857143</v>
+        <v>-27.44515425888667</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0</v>
+        <v>-0.1881790744466798</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1590,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-27.05809523809526</v>
+        <v>-27.52333333333335</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-27.05809523809526</v>
+        <v>-27.38407780013416</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0</v>
+        <v>-0.1392555331991971</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1607,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-27.11666666666668</v>
+        <v>-27.41857142857145</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-27.11666666666668</v>
+        <v>-27.32300134138164</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>-0.09557008718980597</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1624,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-27.18333333333335</v>
+        <v>-27.31952380952383</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-27.18333333333335</v>
+        <v>-27.26192488262912</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>-0.05759892689470192</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1641,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-27.25190476190478</v>
+        <v>-27.2309523809524</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-27.25190476190478</v>
+        <v>-27.20084842387661</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0</v>
+        <v>-0.03010395707578439</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1658,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-27.32428571428573</v>
+        <v>-27.1509523809524</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-27.32428571428573</v>
+        <v>-27.13977196512409</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0</v>
+        <v>-0.01118041582830642</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1675,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-27.40190476190478</v>
+        <v>-27.07952380952383</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-27.40190476190478</v>
+        <v>-27.07869550637158</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0</v>
+        <v>-0.0008283031522502426</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,13 +1692,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-27.48333333333335</v>
+        <v>-27.01761904761906</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-27.48333333333335</v>
+        <v>-27.01761904761906</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1705,13 +1709,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-27.56761904761906</v>
+        <v>-26.96476190476192</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-27.56761904761906</v>
+        <v>-26.96476190476192</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1722,13 +1726,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-27.65857142857145</v>
+        <v>-26.91714285714287</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-27.65857142857145</v>
+        <v>-26.91714285714287</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1739,13 +1743,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-27.75190476190478</v>
+        <v>-26.87714285714287</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-27.75190476190478</v>
+        <v>-26.87714285714287</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1756,13 +1760,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-27.84904761904764</v>
+        <v>-26.84476190476192</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-27.84904761904764</v>
+        <v>-26.84476190476192</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1773,13 +1777,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-27.9509523809524</v>
+        <v>-26.81857142857145</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-27.9509523809524</v>
+        <v>-26.81857142857145</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0</v>
@@ -1790,13 +1794,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-28.05904761904764</v>
+        <v>-26.80000000000002</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-28.05904761904764</v>
+        <v>-26.80000000000002</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0</v>
@@ -1807,13 +1811,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-28.1709523809524</v>
+        <v>-26.78809523809525</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-28.1709523809524</v>
+        <v>-26.78809523809525</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0</v>
@@ -1824,13 +1828,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-28.28904761904764</v>
+        <v>-26.78142857142859</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-28.28904761904764</v>
+        <v>-26.78142857142859</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0</v>
@@ -1841,13 +1845,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-28.41285714285716</v>
+        <v>-26.78142857142859</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-28.41285714285716</v>
+        <v>-26.78142857142859</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>0</v>
@@ -1858,13 +1862,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-28.53809523809526</v>
+        <v>-26.78714285714288</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-28.53809523809526</v>
+        <v>-26.78714285714288</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>0</v>
@@ -1875,13 +1879,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-28.66523809523812</v>
+        <v>-26.80142857142859</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-28.66523809523812</v>
+        <v>-26.80142857142859</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>0</v>
@@ -1892,13 +1896,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-28.7961904761905</v>
+        <v>-26.82142857142859</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-28.7961904761905</v>
+        <v>-26.82142857142859</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0</v>
@@ -1909,13 +1913,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-28.92904761904764</v>
+        <v>-26.84809523809525</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-28.92904761904764</v>
+        <v>-26.84809523809525</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0</v>
@@ -1926,13 +1930,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-29.06761904761906</v>
+        <v>-26.88190476190478</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-29.06761904761906</v>
+        <v>-26.88190476190478</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0</v>
@@ -1943,13 +1947,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-29.21285714285716</v>
+        <v>-26.91761904761907</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-29.21285714285716</v>
+        <v>-26.91761904761907</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1960,13 +1964,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-29.35857142857145</v>
+        <v>-26.95809523809525</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-29.35857142857145</v>
+        <v>-26.95809523809525</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1977,13 +1981,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-29.50761904761907</v>
+        <v>-27.0057142857143</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-29.50761904761907</v>
+        <v>-27.0057142857143</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -1994,13 +1998,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-29.66333333333335</v>
+        <v>-27.05809523809526</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-29.66333333333335</v>
+        <v>-27.05809523809526</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2011,13 +2015,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-29.8209523809524</v>
+        <v>-27.11666666666668</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-29.8209523809524</v>
+        <v>-27.11666666666668</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2028,13 +2032,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-29.9857142857143</v>
+        <v>-27.18333333333335</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-29.9857142857143</v>
+        <v>-27.18333333333335</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2045,13 +2049,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-30.15476190476192</v>
+        <v>-27.25190476190478</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-30.15476190476192</v>
+        <v>-27.25190476190478</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2062,13 +2066,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-30.32571428571431</v>
+        <v>-27.32428571428573</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-30.32571428571431</v>
+        <v>-27.32428571428573</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2079,13 +2083,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-30.50190476190478</v>
+        <v>-27.40190476190478</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-30.50190476190478</v>
+        <v>-27.40190476190478</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2096,13 +2100,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-30.68190476190478</v>
+        <v>-27.48333333333335</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-30.68190476190478</v>
+        <v>-27.48333333333335</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2113,13 +2117,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-30.86476190476192</v>
+        <v>-27.56761904761906</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-30.86476190476192</v>
+        <v>-27.56761904761906</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2130,13 +2134,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-31.05523809523812</v>
+        <v>-27.65857142857145</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-31.05523809523812</v>
+        <v>-27.65857142857145</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2147,13 +2151,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-31.24928571428576</v>
+        <v>-27.75190476190478</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-31.24928571428576</v>
+        <v>-27.75190476190478</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2164,13 +2168,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-31.44785714285719</v>
+        <v>-27.84904761904764</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-31.44785714285719</v>
+        <v>-27.84904761904764</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2181,13 +2185,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-31.65095238095243</v>
+        <v>-27.9509523809524</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-31.65095238095243</v>
+        <v>-27.9509523809524</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2195,6 +2199,414 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-28.05904761904764</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-28.05904761904764</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-28.17095238095239</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-28.17095238095239</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-28.28904761904764</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-28.28904761904764</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-28.41285714285716</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-28.41285714285716</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-28.53809523809526</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-28.53809523809526</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-28.66523809523811</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-28.66523809523811</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-28.7961904761905</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-28.7961904761905</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-28.92904761904764</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-28.92904761904764</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-29.06761904761906</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-29.06761904761906</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-29.21285714285716</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-29.21285714285716</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-29.35857142857145</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-29.35857142857145</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-29.50761904761907</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-29.50761904761907</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-29.66333333333335</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-29.66333333333335</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-29.8209523809524</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-29.8209523809524</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-29.98571428571431</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-29.98571428571431</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-30.15476190476192</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-30.15476190476192</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-30.32571428571431</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-30.32571428571431</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-30.50190476190478</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-30.50190476190478</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-30.68190476190479</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-30.68190476190479</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-30.86476190476193</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-30.86476190476193</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-31.05523809523812</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-31.05523809523812</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-31.24928571428575</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-31.24928571428575</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-31.44785714285719</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-31.44785714285719</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-31.65095238095244</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-31.65095238095244</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2207,7 +2619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2233,10 +2645,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-1.063773809523827</v>
+        <v>-0.5214386317907405</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>-0.136</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-2.648618376928237</v>
       </c>
     </row>
   </sheetData>
